--- a/Übungen/Netzplan_Übung_LEK2.xlsx
+++ b/Übungen/Netzplan_Übung_LEK2.xlsx
@@ -9,6 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1_2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1_2_2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t xml:space="preserve">B</t>
   </si>
@@ -86,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -127,6 +129,48 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -155,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,6 +225,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:W13"/>
+  <dimension ref="A2:W14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W10" activeCellId="0" sqref="W10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,37 +388,41 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2" t="s">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="4" t="n">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="P13" s="4" t="n">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="P14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -361,8 +433,8 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="U8:W8"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -372,4 +444,396 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:W13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="K3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="3"/>
+      <c r="J5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="K8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="P8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="7"/>
+      <c r="U10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="8"/>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="K13" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="P13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P12:R12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:X16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="3"/>
+      <c r="J5" s="11"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="7"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="L8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="P9" s="12"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="P10" s="7"/>
+      <c r="V10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="P11" s="7"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="7"/>
+      <c r="L13" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="8"/>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="Q16" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="Q15:S15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Übungen/Netzplan_Übung_LEK2.xlsx
+++ b/Übungen/Netzplan_Übung_LEK2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,12 +102,19 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,13 +124,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDBDBD"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FF9FA8DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF59D"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FA8DA"/>
+        <bgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +280,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,7 +308,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,68 +320,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -390,7 +367,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF9FA8DA"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -426,7 +403,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -442,8 +419,10 @@
   </sheetPr>
   <dimension ref="A1:CE15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X13" activeCellId="0" sqref="X13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="27" ySplit="0" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BS10" activeCellId="0" sqref="BS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,14 +433,22 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -735,82 +722,90 @@
       <c r="AA2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
-      <c r="AR2" s="8"/>
+      <c r="AR2" s="9"/>
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
       <c r="BA2" s="6"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="6"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
       <c r="BH2" s="6"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
       <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
       <c r="BM2" s="6"/>
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
       <c r="BR2" s="6"/>
       <c r="BS2" s="6"/>
       <c r="BT2" s="6"/>
       <c r="BU2" s="6"/>
       <c r="BV2" s="6"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="7"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
       <c r="CA2" s="6"/>
       <c r="CB2" s="6"/>
       <c r="CC2" s="6"/>
-      <c r="CD2" s="7"/>
-      <c r="CE2" s="7"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
+      <c r="L3" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -831,79 +826,95 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
-      <c r="AR3" s="8"/>
+      <c r="AR3" s="9"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6"/>
       <c r="AY3" s="6"/>
       <c r="AZ3" s="6"/>
       <c r="BA3" s="6"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
       <c r="BH3" s="6"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
       <c r="BK3" s="6"/>
       <c r="BL3" s="6"/>
       <c r="BM3" s="6"/>
       <c r="BN3" s="6"/>
       <c r="BO3" s="6"/>
-      <c r="BP3" s="7"/>
-      <c r="BQ3" s="7"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
       <c r="BR3" s="6"/>
       <c r="BS3" s="6"/>
       <c r="BT3" s="6"/>
       <c r="BU3" s="6"/>
       <c r="BV3" s="6"/>
-      <c r="BW3" s="7"/>
-      <c r="BX3" s="7"/>
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="8"/>
       <c r="BY3" s="6"/>
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
       <c r="CB3" s="6"/>
       <c r="CC3" s="6"/>
-      <c r="CD3" s="7"/>
-      <c r="CE3" s="7"/>
+      <c r="CD3" s="8"/>
+      <c r="CE3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="N4" s="10"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1" t="n">
+        <v>18</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -920,59 +931,59 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="6"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="7"/>
       <c r="AQ4" s="6"/>
-      <c r="AR4" s="8"/>
+      <c r="AR4" s="9"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="6"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
       <c r="BH4" s="6"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="7"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="6"/>
       <c r="BM4" s="6"/>
       <c r="BN4" s="6"/>
       <c r="BO4" s="6"/>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
       <c r="BR4" s="6"/>
       <c r="BS4" s="6"/>
       <c r="BT4" s="6"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="6"/>
-      <c r="BW4" s="7"/>
-      <c r="BX4" s="7"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
       <c r="CA4" s="6"/>
       <c r="CB4" s="6"/>
       <c r="CC4" s="6"/>
-      <c r="CD4" s="7"/>
-      <c r="CE4" s="7"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -1015,64 +1026,68 @@
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="6"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="7"/>
       <c r="AT5" s="6"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
       <c r="BA5" s="6"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
       <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
       <c r="BH5" s="6"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
       <c r="BM5" s="6"/>
       <c r="BN5" s="6"/>
       <c r="BO5" s="6"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
       <c r="BR5" s="6"/>
       <c r="BS5" s="6"/>
       <c r="BT5" s="6"/>
       <c r="BU5" s="6"/>
       <c r="BV5" s="6"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="8"/>
       <c r="BY5" s="6"/>
       <c r="BZ5" s="6"/>
       <c r="CA5" s="6"/>
       <c r="CB5" s="6"/>
       <c r="CC5" s="6"/>
-      <c r="CD5" s="7"/>
-      <c r="CE5" s="7"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1085,12 +1100,16 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
+      <c r="Q6" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" s="12"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1108,82 +1127,102 @@
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
       <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="6"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="7"/>
       <c r="AT6" s="6"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
       <c r="BA6" s="6"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
       <c r="BD6" s="6"/>
       <c r="BE6" s="6"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
       <c r="BH6" s="6"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="6"/>
       <c r="BM6" s="6"/>
       <c r="BN6" s="6"/>
       <c r="BO6" s="6"/>
-      <c r="BP6" s="7"/>
-      <c r="BQ6" s="7"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
       <c r="BR6" s="6"/>
       <c r="BS6" s="6"/>
       <c r="BT6" s="6"/>
       <c r="BU6" s="6"/>
       <c r="BV6" s="6"/>
-      <c r="BW6" s="7"/>
-      <c r="BX6" s="7"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
       <c r="BY6" s="6"/>
       <c r="BZ6" s="6"/>
       <c r="CA6" s="6"/>
       <c r="CB6" s="6"/>
       <c r="CC6" s="6"/>
-      <c r="CD6" s="7"/>
-      <c r="CE6" s="7"/>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" s="10"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1" t="n">
+        <v>23</v>
+      </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="9"/>
+      <c r="R7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="S7" s="10"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1" t="n">
+        <v>28</v>
+      </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="n">
+        <v>31</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="6" t="s">
@@ -1197,63 +1236,63 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
       <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="6"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="7"/>
       <c r="BE7" s="6"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
       <c r="BH7" s="6"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
       <c r="BK7" s="6"/>
       <c r="BL7" s="6"/>
       <c r="BM7" s="6"/>
       <c r="BN7" s="6"/>
       <c r="BO7" s="6"/>
-      <c r="BP7" s="7"/>
-      <c r="BQ7" s="7"/>
+      <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
       <c r="BR7" s="6"/>
       <c r="BS7" s="6"/>
       <c r="BT7" s="6"/>
       <c r="BU7" s="6"/>
       <c r="BV7" s="6"/>
-      <c r="BW7" s="7"/>
-      <c r="BX7" s="7"/>
+      <c r="BW7" s="8"/>
+      <c r="BX7" s="8"/>
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
       <c r="CA7" s="6"/>
       <c r="CB7" s="6"/>
       <c r="CC7" s="6"/>
-      <c r="CD7" s="7"/>
-      <c r="CE7" s="7"/>
+      <c r="CD7" s="8"/>
+      <c r="CE7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>3</v>
@@ -1267,7 +1306,7 @@
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="12"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1292,57 +1331,57 @@
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
-      <c r="AR8" s="8"/>
+      <c r="AR8" s="9"/>
       <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
       <c r="BA8" s="6"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="7"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
       <c r="BH8" s="6"/>
-      <c r="BI8" s="7"/>
-      <c r="BJ8" s="7"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
       <c r="BN8" s="6"/>
       <c r="BO8" s="6"/>
-      <c r="BP8" s="7"/>
-      <c r="BQ8" s="7"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
       <c r="BR8" s="6"/>
       <c r="BS8" s="6"/>
       <c r="BT8" s="6"/>
       <c r="BU8" s="6"/>
       <c r="BV8" s="6"/>
-      <c r="BW8" s="7"/>
-      <c r="BX8" s="7"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
       <c r="BY8" s="6"/>
       <c r="BZ8" s="6"/>
       <c r="CA8" s="6"/>
       <c r="CB8" s="6"/>
       <c r="CC8" s="6"/>
-      <c r="CD8" s="7"/>
-      <c r="CE8" s="7"/>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -1350,18 +1389,26 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1369,11 +1416,15 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="V9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="6" t="s">
@@ -1387,57 +1438,57 @@
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
-      <c r="AR9" s="8"/>
+      <c r="AR9" s="9"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
       <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="BP9" s="7"/>
-      <c r="BQ9" s="7"/>
-      <c r="BR9" s="6"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="7"/>
       <c r="BS9" s="6"/>
       <c r="BT9" s="6"/>
       <c r="BU9" s="6"/>
       <c r="BV9" s="6"/>
-      <c r="BW9" s="7"/>
-      <c r="BX9" s="7"/>
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="8"/>
       <c r="BY9" s="6"/>
       <c r="BZ9" s="6"/>
       <c r="CA9" s="6"/>
       <c r="CB9" s="6"/>
       <c r="CC9" s="6"/>
-      <c r="CD9" s="7"/>
-      <c r="CE9" s="7"/>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -1445,24 +1496,36 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="n">
+        <v>21</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="n">
+        <v>23</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1" t="n">
+        <v>28</v>
+      </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1" t="n">
+        <v>31</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="6" t="s">
@@ -1476,64 +1539,64 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
-      <c r="AR10" s="8"/>
+      <c r="AR10" s="9"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6"/>
       <c r="AY10" s="6"/>
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
       <c r="BH10" s="6"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="6"/>
       <c r="BM10" s="6"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="6"/>
-      <c r="BP10" s="7"/>
-      <c r="BQ10" s="7"/>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="8"/>
       <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
-      <c r="BU10" s="6"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="7"/>
       <c r="BV10" s="6"/>
-      <c r="BW10" s="7"/>
-      <c r="BX10" s="7"/>
+      <c r="BW10" s="8"/>
+      <c r="BX10" s="8"/>
       <c r="BY10" s="6"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="6"/>
       <c r="CB10" s="6"/>
       <c r="CC10" s="6"/>
-      <c r="CD10" s="7"/>
-      <c r="CE10" s="7"/>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
@@ -1542,7 +1605,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1552,7 +1615,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="14"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1628,7 +1691,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="n">
         <v>11</v>
@@ -1646,7 +1709,7 @@
       <c r="R12" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="S12" s="9"/>
+      <c r="S12" s="10"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1713,13 +1776,13 @@
       <c r="CE12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1"/>
@@ -1727,7 +1790,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5" t="s">
         <v>6</v>
@@ -1741,7 +1804,7 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1808,11 +1871,11 @@
       <c r="CE13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1"/>
@@ -1822,18 +1885,26 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="Q14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1911,14 +1982,22 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="1" t="n">
+        <v>28</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2016,589 +2095,758 @@
   <dimension ref="A1:CF18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <pane xSplit="28" ySplit="0" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BT10" activeCellId="0" sqref="BT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC1" s="0" t="n">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD1" s="0" t="n">
+      <c r="AD1" s="1" t="n">
         <f aca="false">AC1+1</f>
         <v>2</v>
       </c>
-      <c r="AE1" s="0" t="n">
+      <c r="AE1" s="1" t="n">
         <f aca="false">AD1+1</f>
         <v>3</v>
       </c>
-      <c r="AF1" s="0" t="n">
+      <c r="AF1" s="1" t="n">
         <f aca="false">AE1+1</f>
         <v>4</v>
       </c>
-      <c r="AG1" s="0" t="n">
+      <c r="AG1" s="1" t="n">
         <f aca="false">AF1+1</f>
         <v>5</v>
       </c>
-      <c r="AH1" s="16" t="n">
+      <c r="AH1" s="2" t="n">
         <f aca="false">AG1+1</f>
         <v>6</v>
       </c>
-      <c r="AI1" s="16" t="n">
+      <c r="AI1" s="2" t="n">
         <f aca="false">AH1+1</f>
         <v>7</v>
       </c>
-      <c r="AJ1" s="0" t="n">
+      <c r="AJ1" s="1" t="n">
         <f aca="false">AI1+1</f>
         <v>8</v>
       </c>
-      <c r="AK1" s="0" t="n">
+      <c r="AK1" s="1" t="n">
         <f aca="false">AJ1+1</f>
         <v>9</v>
       </c>
-      <c r="AL1" s="0" t="n">
+      <c r="AL1" s="1" t="n">
         <f aca="false">AK1+1</f>
         <v>10</v>
       </c>
-      <c r="AM1" s="0" t="n">
+      <c r="AM1" s="1" t="n">
         <f aca="false">AL1+1</f>
         <v>11</v>
       </c>
-      <c r="AN1" s="0" t="n">
+      <c r="AN1" s="1" t="n">
         <f aca="false">AM1+1</f>
         <v>12</v>
       </c>
-      <c r="AO1" s="16" t="n">
+      <c r="AO1" s="2" t="n">
         <f aca="false">AN1+1</f>
         <v>13</v>
       </c>
-      <c r="AP1" s="16" t="n">
+      <c r="AP1" s="2" t="n">
         <f aca="false">AO1+1</f>
         <v>14</v>
       </c>
-      <c r="AQ1" s="0" t="n">
+      <c r="AQ1" s="1" t="n">
         <f aca="false">AP1+1</f>
         <v>15</v>
       </c>
-      <c r="AR1" s="0" t="n">
+      <c r="AR1" s="1" t="n">
         <f aca="false">AQ1+1</f>
         <v>16</v>
       </c>
-      <c r="AS1" s="17" t="n">
+      <c r="AS1" s="3" t="n">
         <f aca="false">AR1+1</f>
         <v>17</v>
       </c>
-      <c r="AT1" s="0" t="n">
+      <c r="AT1" s="1" t="n">
         <f aca="false">AS1+1</f>
         <v>18</v>
       </c>
-      <c r="AU1" s="0" t="n">
+      <c r="AU1" s="1" t="n">
         <f aca="false">AT1+1</f>
         <v>19</v>
       </c>
-      <c r="AV1" s="16" t="n">
+      <c r="AV1" s="2" t="n">
         <f aca="false">AU1+1</f>
         <v>20</v>
       </c>
-      <c r="AW1" s="16" t="n">
+      <c r="AW1" s="2" t="n">
         <f aca="false">AV1+1</f>
         <v>21</v>
       </c>
-      <c r="AX1" s="0" t="n">
+      <c r="AX1" s="1" t="n">
         <f aca="false">AW1+1</f>
         <v>22</v>
       </c>
-      <c r="AY1" s="0" t="n">
+      <c r="AY1" s="1" t="n">
         <f aca="false">AX1+1</f>
         <v>23</v>
       </c>
-      <c r="AZ1" s="0" t="n">
+      <c r="AZ1" s="1" t="n">
         <f aca="false">AY1+1</f>
         <v>24</v>
       </c>
-      <c r="BA1" s="0" t="n">
+      <c r="BA1" s="1" t="n">
         <f aca="false">AZ1+1</f>
         <v>25</v>
       </c>
-      <c r="BB1" s="0" t="n">
+      <c r="BB1" s="1" t="n">
         <f aca="false">BA1+1</f>
         <v>26</v>
       </c>
-      <c r="BC1" s="16" t="n">
+      <c r="BC1" s="2" t="n">
         <f aca="false">BB1+1</f>
         <v>27</v>
       </c>
-      <c r="BD1" s="16" t="n">
+      <c r="BD1" s="2" t="n">
         <f aca="false">BC1+1</f>
         <v>28</v>
       </c>
-      <c r="BE1" s="0" t="n">
+      <c r="BE1" s="1" t="n">
         <f aca="false">BD1+1</f>
         <v>29</v>
       </c>
-      <c r="BF1" s="0" t="n">
+      <c r="BF1" s="1" t="n">
         <f aca="false">BE1+1</f>
         <v>30</v>
       </c>
-      <c r="BG1" s="17" t="n">
+      <c r="BG1" s="3" t="n">
         <f aca="false">BF1+1</f>
         <v>31</v>
       </c>
-      <c r="BH1" s="17" t="n">
+      <c r="BH1" s="3" t="n">
         <f aca="false">BG1+1</f>
         <v>32</v>
       </c>
-      <c r="BI1" s="0" t="n">
+      <c r="BI1" s="1" t="n">
         <f aca="false">BH1+1</f>
         <v>33</v>
       </c>
-      <c r="BJ1" s="16" t="n">
+      <c r="BJ1" s="2" t="n">
         <f aca="false">BI1+1</f>
         <v>34</v>
       </c>
-      <c r="BK1" s="16" t="n">
+      <c r="BK1" s="2" t="n">
         <f aca="false">BJ1+1</f>
         <v>35</v>
       </c>
-      <c r="BL1" s="0" t="n">
+      <c r="BL1" s="1" t="n">
         <f aca="false">BK1+1</f>
         <v>36</v>
       </c>
-      <c r="BM1" s="0" t="n">
+      <c r="BM1" s="1" t="n">
         <f aca="false">BL1+1</f>
         <v>37</v>
       </c>
-      <c r="BN1" s="0" t="n">
+      <c r="BN1" s="1" t="n">
         <f aca="false">BM1+1</f>
         <v>38</v>
       </c>
-      <c r="BO1" s="0" t="n">
+      <c r="BO1" s="1" t="n">
         <f aca="false">BN1+1</f>
         <v>39</v>
       </c>
-      <c r="BP1" s="0" t="n">
+      <c r="BP1" s="1" t="n">
         <f aca="false">BO1+1</f>
         <v>40</v>
       </c>
-      <c r="BQ1" s="16" t="n">
+      <c r="BQ1" s="2" t="n">
         <f aca="false">BP1+1</f>
         <v>41</v>
       </c>
-      <c r="BR1" s="16" t="n">
+      <c r="BR1" s="2" t="n">
         <f aca="false">BQ1+1</f>
         <v>42</v>
       </c>
-      <c r="BS1" s="0" t="n">
+      <c r="BS1" s="1" t="n">
         <f aca="false">BR1+1</f>
         <v>43</v>
       </c>
-      <c r="BT1" s="0" t="n">
+      <c r="BT1" s="1" t="n">
         <f aca="false">BS1+1</f>
         <v>44</v>
       </c>
-      <c r="BU1" s="0" t="n">
+      <c r="BU1" s="1" t="n">
         <f aca="false">BT1+1</f>
         <v>45</v>
       </c>
-      <c r="BV1" s="0" t="n">
+      <c r="BV1" s="1" t="n">
         <f aca="false">BU1+1</f>
         <v>46</v>
       </c>
-      <c r="BW1" s="0" t="n">
+      <c r="BW1" s="1" t="n">
         <f aca="false">BV1+1</f>
         <v>47</v>
       </c>
-      <c r="BX1" s="16" t="n">
+      <c r="BX1" s="2" t="n">
         <f aca="false">BW1+1</f>
         <v>48</v>
       </c>
-      <c r="BY1" s="16" t="n">
+      <c r="BY1" s="2" t="n">
         <f aca="false">BX1+1</f>
         <v>49</v>
       </c>
-      <c r="BZ1" s="0" t="n">
+      <c r="BZ1" s="1" t="n">
         <f aca="false">BY1+1</f>
         <v>50</v>
       </c>
-      <c r="CA1" s="0" t="n">
+      <c r="CA1" s="1" t="n">
         <f aca="false">BZ1+1</f>
         <v>51</v>
       </c>
-      <c r="CB1" s="0" t="n">
+      <c r="CB1" s="1" t="n">
         <f aca="false">CA1+1</f>
         <v>52</v>
       </c>
-      <c r="CC1" s="0" t="n">
+      <c r="CC1" s="1" t="n">
         <f aca="false">CB1+1</f>
         <v>53</v>
       </c>
-      <c r="CD1" s="0" t="n">
+      <c r="CD1" s="1" t="n">
         <f aca="false">CC1+1</f>
         <v>54</v>
       </c>
-      <c r="CE1" s="16" t="n">
+      <c r="CE1" s="2" t="n">
         <f aca="false">CD1+1</f>
         <v>55</v>
       </c>
-      <c r="CF1" s="16" t="n">
+      <c r="CF1" s="2" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="18"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="AA2" s="19" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="19" t="n">
+      <c r="AB2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="19"/>
-      <c r="CD2" s="19"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="n">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="K3" s="23" t="n">
+      <c r="G3" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="AA3" s="19" t="s">
+      <c r="L3" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="AB3" s="19" t="n">
+      <c r="N3" s="12"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="21"/>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="20"/>
-      <c r="BY3" s="20"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
-      <c r="CB3" s="19"/>
-      <c r="CC3" s="19"/>
-      <c r="CD3" s="19"/>
-      <c r="CE3" s="20"/>
-      <c r="CF3" s="20"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="8"/>
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="8"/>
+      <c r="CF3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="O4" s="22"/>
-      <c r="AA4" s="19" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="19" t="n">
+      <c r="AB4" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="21"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="19"/>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="25"/>
-      <c r="J5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="AA5" s="19" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AB5" s="19" t="n">
+      <c r="AB5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="19"/>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="26"/>
-      <c r="I6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="18"/>
-      <c r="AA6" s="19" t="s">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="19" t="n">
+      <c r="AB6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="20"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
-      <c r="BQ6" s="20"/>
-      <c r="BR6" s="20"/>
-      <c r="BS6" s="19"/>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="20"/>
-      <c r="BY6" s="20"/>
-      <c r="BZ6" s="19"/>
-      <c r="CA6" s="19"/>
-      <c r="CB6" s="19"/>
-      <c r="CC6" s="19"/>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="20"/>
-      <c r="CF6" s="20"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="8"/>
+      <c r="CF6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -2606,357 +2854,893 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="J7" s="27"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="AA7" s="19" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="19" t="n">
+      <c r="AB7" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="20"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="20"/>
-      <c r="BK7" s="20"/>
-      <c r="BL7" s="19"/>
-      <c r="BM7" s="19"/>
-      <c r="BN7" s="19"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
-      <c r="BQ7" s="20"/>
-      <c r="BR7" s="20"/>
-      <c r="BS7" s="19"/>
-      <c r="BT7" s="19"/>
-      <c r="BU7" s="19"/>
-      <c r="BV7" s="19"/>
-      <c r="BW7" s="19"/>
-      <c r="BX7" s="20"/>
-      <c r="BY7" s="20"/>
-      <c r="BZ7" s="19"/>
-      <c r="CA7" s="19"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="19"/>
-      <c r="CD7" s="19"/>
-      <c r="CE7" s="20"/>
-      <c r="CF7" s="20"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="8"/>
+      <c r="BY7" s="8"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="8"/>
+      <c r="CF7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="K8" s="23" t="n">
+      <c r="B8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="P8" s="23" t="n">
+      <c r="L8" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="AA8" s="19" t="s">
+      <c r="Q8" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="19" t="n">
+      <c r="AB8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="20"/>
-      <c r="BL8" s="19"/>
-      <c r="BM8" s="19"/>
-      <c r="BN8" s="19"/>
-      <c r="BO8" s="19"/>
-      <c r="BP8" s="19"/>
-      <c r="BQ8" s="20"/>
-      <c r="BR8" s="20"/>
-      <c r="BS8" s="19"/>
-      <c r="BT8" s="19"/>
-      <c r="BU8" s="19"/>
-      <c r="BV8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BX8" s="20"/>
-      <c r="BY8" s="20"/>
-      <c r="BZ8" s="19"/>
-      <c r="CA8" s="19"/>
-      <c r="CB8" s="19"/>
-      <c r="CC8" s="19"/>
-      <c r="CD8" s="19"/>
-      <c r="CE8" s="20"/>
-      <c r="CF8" s="20"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="18"/>
-      <c r="AA9" s="19" t="s">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="19" t="n">
+      <c r="AB9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="20"/>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20"/>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="19"/>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19"/>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="8"/>
+      <c r="CF9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="22"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="AA10" s="19" t="s">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AB10" s="19" t="n">
+      <c r="AB10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="19"/>
-      <c r="BJ10" s="20"/>
-      <c r="BK10" s="20"/>
-      <c r="BL10" s="19"/>
-      <c r="BM10" s="19"/>
-      <c r="BN10" s="19"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="19"/>
-      <c r="BQ10" s="20"/>
-      <c r="BR10" s="20"/>
-      <c r="BS10" s="19"/>
-      <c r="BT10" s="19"/>
-      <c r="BU10" s="19"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="20"/>
-      <c r="BY10" s="20"/>
-      <c r="BZ10" s="19"/>
-      <c r="CA10" s="19"/>
-      <c r="CB10" s="19"/>
-      <c r="CC10" s="19"/>
-      <c r="CD10" s="19"/>
-      <c r="CE10" s="20"/>
-      <c r="CF10" s="20"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="6"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="8"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="7"/>
+      <c r="BV10" s="7"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="8"/>
+      <c r="BZ10" s="6"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="8"/>
+      <c r="CF10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="25"/>
-      <c r="E11" s="22"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="23" t="n">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="27"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="26"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="23" t="n">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="K13" s="23" t="n">
+      <c r="G13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="P13" s="23" t="n">
+      <c r="L13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="Q13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -2964,26 +3748,269 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3015,594 +4042,770 @@
   </sheetPr>
   <dimension ref="A1:CH20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="30" ySplit="0" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="V5" activeCellId="0" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE1" s="0" t="n">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF1" s="0" t="n">
+      <c r="AF1" s="1" t="n">
         <f aca="false">AE1+1</f>
         <v>2</v>
       </c>
-      <c r="AG1" s="0" t="n">
+      <c r="AG1" s="1" t="n">
         <f aca="false">AF1+1</f>
         <v>3</v>
       </c>
-      <c r="AH1" s="0" t="n">
+      <c r="AH1" s="1" t="n">
         <f aca="false">AG1+1</f>
         <v>4</v>
       </c>
-      <c r="AI1" s="0" t="n">
+      <c r="AI1" s="1" t="n">
         <f aca="false">AH1+1</f>
         <v>5</v>
       </c>
-      <c r="AJ1" s="16" t="n">
+      <c r="AJ1" s="2" t="n">
         <f aca="false">AI1+1</f>
         <v>6</v>
       </c>
-      <c r="AK1" s="16" t="n">
+      <c r="AK1" s="2" t="n">
         <f aca="false">AJ1+1</f>
         <v>7</v>
       </c>
-      <c r="AL1" s="0" t="n">
+      <c r="AL1" s="1" t="n">
         <f aca="false">AK1+1</f>
         <v>8</v>
       </c>
-      <c r="AM1" s="0" t="n">
+      <c r="AM1" s="1" t="n">
         <f aca="false">AL1+1</f>
         <v>9</v>
       </c>
-      <c r="AN1" s="0" t="n">
+      <c r="AN1" s="1" t="n">
         <f aca="false">AM1+1</f>
         <v>10</v>
       </c>
-      <c r="AO1" s="0" t="n">
+      <c r="AO1" s="1" t="n">
         <f aca="false">AN1+1</f>
         <v>11</v>
       </c>
-      <c r="AP1" s="0" t="n">
+      <c r="AP1" s="1" t="n">
         <f aca="false">AO1+1</f>
         <v>12</v>
       </c>
-      <c r="AQ1" s="16" t="n">
+      <c r="AQ1" s="2" t="n">
         <f aca="false">AP1+1</f>
         <v>13</v>
       </c>
-      <c r="AR1" s="16" t="n">
+      <c r="AR1" s="2" t="n">
         <f aca="false">AQ1+1</f>
         <v>14</v>
       </c>
-      <c r="AS1" s="0" t="n">
+      <c r="AS1" s="1" t="n">
         <f aca="false">AR1+1</f>
         <v>15</v>
       </c>
-      <c r="AT1" s="0" t="n">
+      <c r="AT1" s="1" t="n">
         <f aca="false">AS1+1</f>
         <v>16</v>
       </c>
-      <c r="AU1" s="17" t="n">
+      <c r="AU1" s="3" t="n">
         <f aca="false">AT1+1</f>
         <v>17</v>
       </c>
-      <c r="AV1" s="0" t="n">
+      <c r="AV1" s="1" t="n">
         <f aca="false">AU1+1</f>
         <v>18</v>
       </c>
-      <c r="AW1" s="0" t="n">
+      <c r="AW1" s="1" t="n">
         <f aca="false">AV1+1</f>
         <v>19</v>
       </c>
-      <c r="AX1" s="16" t="n">
+      <c r="AX1" s="2" t="n">
         <f aca="false">AW1+1</f>
         <v>20</v>
       </c>
-      <c r="AY1" s="16" t="n">
+      <c r="AY1" s="2" t="n">
         <f aca="false">AX1+1</f>
         <v>21</v>
       </c>
-      <c r="AZ1" s="0" t="n">
+      <c r="AZ1" s="1" t="n">
         <f aca="false">AY1+1</f>
         <v>22</v>
       </c>
-      <c r="BA1" s="0" t="n">
+      <c r="BA1" s="1" t="n">
         <f aca="false">AZ1+1</f>
         <v>23</v>
       </c>
-      <c r="BB1" s="0" t="n">
+      <c r="BB1" s="1" t="n">
         <f aca="false">BA1+1</f>
         <v>24</v>
       </c>
-      <c r="BC1" s="0" t="n">
+      <c r="BC1" s="1" t="n">
         <f aca="false">BB1+1</f>
         <v>25</v>
       </c>
-      <c r="BD1" s="0" t="n">
+      <c r="BD1" s="1" t="n">
         <f aca="false">BC1+1</f>
         <v>26</v>
       </c>
-      <c r="BE1" s="16" t="n">
+      <c r="BE1" s="2" t="n">
         <f aca="false">BD1+1</f>
         <v>27</v>
       </c>
-      <c r="BF1" s="16" t="n">
+      <c r="BF1" s="2" t="n">
         <f aca="false">BE1+1</f>
         <v>28</v>
       </c>
-      <c r="BG1" s="0" t="n">
+      <c r="BG1" s="1" t="n">
         <f aca="false">BF1+1</f>
         <v>29</v>
       </c>
-      <c r="BH1" s="0" t="n">
+      <c r="BH1" s="1" t="n">
         <f aca="false">BG1+1</f>
         <v>30</v>
       </c>
-      <c r="BI1" s="17" t="n">
+      <c r="BI1" s="3" t="n">
         <f aca="false">BH1+1</f>
         <v>31</v>
       </c>
-      <c r="BJ1" s="17" t="n">
+      <c r="BJ1" s="3" t="n">
         <f aca="false">BI1+1</f>
         <v>32</v>
       </c>
-      <c r="BK1" s="0" t="n">
+      <c r="BK1" s="1" t="n">
         <f aca="false">BJ1+1</f>
         <v>33</v>
       </c>
-      <c r="BL1" s="16" t="n">
+      <c r="BL1" s="2" t="n">
         <f aca="false">BK1+1</f>
         <v>34</v>
       </c>
-      <c r="BM1" s="16" t="n">
+      <c r="BM1" s="2" t="n">
         <f aca="false">BL1+1</f>
         <v>35</v>
       </c>
-      <c r="BN1" s="0" t="n">
+      <c r="BN1" s="1" t="n">
         <f aca="false">BM1+1</f>
         <v>36</v>
       </c>
-      <c r="BO1" s="0" t="n">
+      <c r="BO1" s="1" t="n">
         <f aca="false">BN1+1</f>
         <v>37</v>
       </c>
-      <c r="BP1" s="0" t="n">
+      <c r="BP1" s="1" t="n">
         <f aca="false">BO1+1</f>
         <v>38</v>
       </c>
-      <c r="BQ1" s="0" t="n">
+      <c r="BQ1" s="1" t="n">
         <f aca="false">BP1+1</f>
         <v>39</v>
       </c>
-      <c r="BR1" s="0" t="n">
+      <c r="BR1" s="1" t="n">
         <f aca="false">BQ1+1</f>
         <v>40</v>
       </c>
-      <c r="BS1" s="16" t="n">
+      <c r="BS1" s="2" t="n">
         <f aca="false">BR1+1</f>
         <v>41</v>
       </c>
-      <c r="BT1" s="16" t="n">
+      <c r="BT1" s="2" t="n">
         <f aca="false">BS1+1</f>
         <v>42</v>
       </c>
-      <c r="BU1" s="0" t="n">
+      <c r="BU1" s="1" t="n">
         <f aca="false">BT1+1</f>
         <v>43</v>
       </c>
-      <c r="BV1" s="0" t="n">
+      <c r="BV1" s="1" t="n">
         <f aca="false">BU1+1</f>
         <v>44</v>
       </c>
-      <c r="BW1" s="0" t="n">
+      <c r="BW1" s="1" t="n">
         <f aca="false">BV1+1</f>
         <v>45</v>
       </c>
-      <c r="BX1" s="0" t="n">
+      <c r="BX1" s="1" t="n">
         <f aca="false">BW1+1</f>
         <v>46</v>
       </c>
-      <c r="BY1" s="0" t="n">
+      <c r="BY1" s="1" t="n">
         <f aca="false">BX1+1</f>
         <v>47</v>
       </c>
-      <c r="BZ1" s="16" t="n">
+      <c r="BZ1" s="2" t="n">
         <f aca="false">BY1+1</f>
         <v>48</v>
       </c>
-      <c r="CA1" s="16" t="n">
+      <c r="CA1" s="2" t="n">
         <f aca="false">BZ1+1</f>
         <v>49</v>
       </c>
-      <c r="CB1" s="0" t="n">
+      <c r="CB1" s="1" t="n">
         <f aca="false">CA1+1</f>
         <v>50</v>
       </c>
-      <c r="CC1" s="0" t="n">
+      <c r="CC1" s="1" t="n">
         <f aca="false">CB1+1</f>
         <v>51</v>
       </c>
-      <c r="CD1" s="0" t="n">
+      <c r="CD1" s="1" t="n">
         <f aca="false">CC1+1</f>
         <v>52</v>
       </c>
-      <c r="CE1" s="0" t="n">
+      <c r="CE1" s="1" t="n">
         <f aca="false">CD1+1</f>
         <v>53</v>
       </c>
-      <c r="CF1" s="0" t="n">
+      <c r="CF1" s="1" t="n">
         <f aca="false">CE1+1</f>
         <v>54</v>
       </c>
-      <c r="CG1" s="16" t="n">
+      <c r="CG1" s="2" t="n">
         <f aca="false">CF1+1</f>
         <v>55</v>
       </c>
-      <c r="CH1" s="16" t="n">
+      <c r="CH1" s="2" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="18"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="AC2" s="19" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="19" t="n">
+      <c r="AD2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="19"/>
-      <c r="CD2" s="19"/>
-      <c r="CE2" s="19"/>
-      <c r="CF2" s="19"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="20"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="n">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23" t="n">
+      <c r="G3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="AC3" s="19" t="s">
+      <c r="M3" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="19" t="n">
+      <c r="AD3" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="20"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="20"/>
-      <c r="CA3" s="20"/>
-      <c r="CB3" s="19"/>
-      <c r="CC3" s="19"/>
-      <c r="CD3" s="19"/>
-      <c r="CE3" s="19"/>
-      <c r="CF3" s="19"/>
-      <c r="CG3" s="20"/>
-      <c r="CH3" s="20"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="8"/>
+      <c r="CH3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="K4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="AC4" s="19" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AD4" s="19" t="n">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="19"/>
-      <c r="BY4" s="19"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19"/>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="25"/>
-      <c r="J5" s="29"/>
-      <c r="P5" s="22"/>
-      <c r="AC5" s="19" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AD5" s="19" t="n">
+      <c r="AD5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BY5" s="19"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="7"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="26"/>
-      <c r="I6" s="25"/>
-      <c r="K6" s="22"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="18"/>
-      <c r="AC6" s="19" t="s">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="19" t="n">
+      <c r="AD6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="20"/>
-      <c r="BM6" s="20"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
-      <c r="BQ6" s="19"/>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="20"/>
-      <c r="BT6" s="20"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="20"/>
-      <c r="CA6" s="20"/>
-      <c r="CB6" s="19"/>
-      <c r="CC6" s="19"/>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="19"/>
-      <c r="CF6" s="19"/>
-      <c r="CG6" s="20"/>
-      <c r="CH6" s="20"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -3610,385 +4813,1087 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="I7" s="25"/>
-      <c r="K7" s="27"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="AC7" s="19" t="s">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="19" t="n">
+      <c r="AD7" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="20"/>
-      <c r="BM7" s="20"/>
-      <c r="BN7" s="19"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
-      <c r="BQ7" s="19"/>
-      <c r="BR7" s="19"/>
-      <c r="BS7" s="20"/>
-      <c r="BT7" s="20"/>
-      <c r="BU7" s="19"/>
-      <c r="BV7" s="19"/>
-      <c r="BW7" s="19"/>
-      <c r="BX7" s="19"/>
-      <c r="BY7" s="19"/>
-      <c r="BZ7" s="20"/>
-      <c r="CA7" s="20"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="19"/>
-      <c r="CD7" s="19"/>
-      <c r="CE7" s="19"/>
-      <c r="CF7" s="19"/>
-      <c r="CG7" s="20"/>
-      <c r="CH7" s="20"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="8"/>
+      <c r="BT7" s="8"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="8"/>
+      <c r="CA7" s="8"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="I8" s="25"/>
-      <c r="L8" s="23" t="n">
+      <c r="B8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="Q8" s="23" t="n">
+      <c r="M8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="24"/>
-      <c r="AC8" s="19" t="s">
+      <c r="R8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="19" t="n">
+      <c r="AD8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="19"/>
-      <c r="BL8" s="20"/>
-      <c r="BM8" s="20"/>
-      <c r="BN8" s="19"/>
-      <c r="BO8" s="19"/>
-      <c r="BP8" s="19"/>
-      <c r="BQ8" s="19"/>
-      <c r="BR8" s="19"/>
-      <c r="BS8" s="20"/>
-      <c r="BT8" s="20"/>
-      <c r="BU8" s="19"/>
-      <c r="BV8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BX8" s="19"/>
-      <c r="BY8" s="19"/>
-      <c r="BZ8" s="20"/>
-      <c r="CA8" s="20"/>
-      <c r="CB8" s="19"/>
-      <c r="CC8" s="19"/>
-      <c r="CD8" s="19"/>
-      <c r="CE8" s="19"/>
-      <c r="CF8" s="19"/>
-      <c r="CG8" s="20"/>
-      <c r="CH8" s="20"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="8"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="P9" s="30"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="18"/>
-      <c r="AC9" s="19" t="s">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" s="19" t="n">
+      <c r="AD9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="19"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19"/>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="20"/>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19"/>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="8"/>
+      <c r="CA9" s="8"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="22"/>
-      <c r="I10" s="25"/>
-      <c r="P10" s="22"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="AC10" s="19" t="s">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="19" t="n">
+      <c r="AD10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="19"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="19"/>
-      <c r="BL10" s="20"/>
-      <c r="BM10" s="20"/>
-      <c r="BN10" s="19"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="19"/>
-      <c r="BQ10" s="19"/>
-      <c r="BR10" s="19"/>
-      <c r="BS10" s="20"/>
-      <c r="BT10" s="20"/>
-      <c r="BU10" s="19"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="19"/>
-      <c r="BY10" s="19"/>
-      <c r="BZ10" s="20"/>
-      <c r="CA10" s="20"/>
-      <c r="CB10" s="19"/>
-      <c r="CC10" s="19"/>
-      <c r="CD10" s="19"/>
-      <c r="CE10" s="19"/>
-      <c r="CF10" s="19"/>
-      <c r="CG10" s="20"/>
-      <c r="CH10" s="20"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="6"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="6"/>
+      <c r="BZ10" s="8"/>
+      <c r="CA10" s="8"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="8"/>
+      <c r="CH10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="22"/>
-      <c r="I11" s="25"/>
-      <c r="P11" s="22"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="23" t="n">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
+      <c r="W11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="22"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="22"/>
-      <c r="U12" s="22"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="22"/>
-      <c r="L13" s="23" t="n">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="U13" s="22"/>
+      <c r="M13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="25"/>
-      <c r="E14" s="22"/>
-      <c r="T14" s="25"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="27"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="26"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="23" t="n">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="Q16" s="23" t="n">
+      <c r="G16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="R16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -3996,26 +5901,275 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
